--- a/outputs-r202/g__UBA2897.xlsx
+++ b/outputs-r202/g__UBA2897.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__UBA2897 sp900315155</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__UBA2897 sp900315155</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__UBA2897 sp900316275</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__UBA2897 sp900316275</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__UBA2897 sp900316275</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__UBA2897 sp900316275(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -557,6 +577,11 @@
         <v>0.9816507041697121</v>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>s__UBA2897 sp900315155</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>s__UBA2897 sp900315155</t>
         </is>

--- a/outputs-r202/g__UBA2897.xlsx
+++ b/outputs-r202/g__UBA2897.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001230382466614867</v>
+        <v>0.008708794936096246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998769617533363</v>
+        <v>0.9912912050638815</v>
       </c>
       <c r="D2" t="n">
-        <v>2.219807355427027e-14</v>
+        <v>2.219828433835073e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.998769617533363</v>
+        <v>0.9912912050638815</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001968851210394952</v>
+        <v>0.004577258176897045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007738039929759986</v>
+        <v>0.0204693659532728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.990293108859845</v>
+        <v>0.9749533758698302</v>
       </c>
       <c r="E3" t="n">
-        <v>0.990293108859845</v>
+        <v>0.9749533758698302</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,56 +532,27 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG276.fasta</t>
+          <t>hRUG860.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2296214825215224</v>
+        <v>0.009274760019793065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1881528742292817</v>
+        <v>0.9907252399801848</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5822256432491959</v>
+        <v>2.219828573710756e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5822256432491959</v>
+        <v>0.9907252399801848</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s__UBA2897 sp900316275</t>
+          <t>s__UBA2897 sp900315155</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>s__UBA2897 sp900316275(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>hRUG860.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.01834929583025793</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9816507041697121</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.996348486187879e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9816507041697121</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__UBA2897 sp900315155</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>s__UBA2897 sp900315155</t>
         </is>
